--- a/biology/Zoologie/Chèvre_galicienne/Chèvre_galicienne.xlsx
+++ b/biology/Zoologie/Chèvre_galicienne/Chèvre_galicienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_galicienne</t>
+          <t>Chèvre_galicienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La chèvre galicienne (cabra galega) est une race de chèvres d'origine galicienne. En 2012, le cheptel compte 622 têtes (514 femelles et 108 mâles) répartis dans 64 fermes[1]. Ces animaux sont très bien adaptés à l'environnement et, selon le Invesaga (Recherche en Santé Animale de Galice) ils ont une plus grande résistance aux infections que les autres races caprines au parasite du ver hépatique[2].
+La chèvre galicienne (cabra galega) est une race de chèvres d'origine galicienne. En 2012, le cheptel compte 622 têtes (514 femelles et 108 mâles) répartis dans 64 fermes. Ces animaux sont très bien adaptés à l'environnement et, selon le Invesaga (Recherche en Santé Animale de Galice) ils ont une plus grande résistance aux infections que les autres races caprines au parasite du ver hépatique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_galicienne</t>
+          <t>Chèvre_galicienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En général, les spécimens de la race des chèvres galicienne sont dispersés dans les zones de montagne, principalement dans les provinces de Lugo et de Ourense.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_galicienne</t>
+          <t>Chèvre_galicienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chèvres galiciennes sont les animaux de profil droit ou subconcave, eumétriques, et un grand dimorphisme sexuel. Leur robe est homogène, de couleur acajou ou blonde, avec les différentes nuances ; la présence de taches blanches est considérée comme disqualifiante dans les concours.
 Les cornes des femelles sont arquées vers l'arrière. Elles apparaissent séparées et ont une croissance dissociée. Chez les mâles, ils sont sous la forme d'un escargot, de forme allongée et sont d'une plus grande taille que celles des femelles.
